--- a/code_for_stats/c_lm_model_results.xlsx
+++ b/code_for_stats/c_lm_model_results.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmersonEmmerson/Documents/Master's/C_forecasting_NL/code_for_stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64530672-81F7-7B42-A7D4-944C33DC1CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B6889D-84E9-814A-A0F5-ED3CEE492C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16940" activeTab="1" xr2:uid="{2A789B6C-DF01-8A4C-BB45-45F2C6B1CDE0}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16940" activeTab="3" xr2:uid="{2A789B6C-DF01-8A4C-BB45-45F2C6B1CDE0}"/>
   </bookViews>
   <sheets>
     <sheet name="by site" sheetId="1" r:id="rId1"/>
     <sheet name="by site reduced" sheetId="4" r:id="rId2"/>
     <sheet name="notes" sheetId="2" r:id="rId3"/>
     <sheet name="by subplot" sheetId="3" r:id="rId4"/>
+    <sheet name="by subplot reduced" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="103">
   <si>
     <t>park</t>
   </si>
@@ -308,9 +309,6 @@
     <t>list(FHT = "FHT", EVIamp = "EVIamp", EVImed = "EVImed", SLO = "SLO", LGS = "LGS")</t>
   </si>
   <si>
-    <t>Order</t>
-  </si>
-  <si>
     <t>./*/</t>
   </si>
   <si>
@@ -318,13 +316,46 @@
   </si>
   <si>
     <t xml:space="preserve"> /*/ </t>
+  </si>
+  <si>
+    <t>Order made</t>
+  </si>
+  <si>
+    <t>list(FHT = "FHT", EVIamp = "EVIamp", EVImed = "EVImed", ASP = "ASP")</t>
+  </si>
+  <si>
+    <t>list(FHT = "FHT", EVImed = "EVImed", ASP = "ASP")</t>
+  </si>
+  <si>
+    <t>list(FHT = "FHT", EVImed = "EVImed", ASP = "ASP", LGS = "LGS")</t>
+  </si>
+  <si>
+    <t>list(FHT = "FHT", EVIamp = "EVIamp", EVImed = "EVImed", ASP = "ASP", LGS = "LGS")</t>
+  </si>
+  <si>
+    <t>list(FHT = "FHT", ASP = "ASP")</t>
+  </si>
+  <si>
+    <t>list(FHT = "FHT", EVIamp = "EVIamp", ASP = "ASP", LGS = "LGS")</t>
+  </si>
+  <si>
+    <t>list(FHT = "FHT", EVIamp = "EVIamp", EVImed = "EVImed", ASP = "ASP", LGS = "LGS", Moose_new = "Moose_new")</t>
+  </si>
+  <si>
+    <t>list(FHT = "FHT", EVIamp = "EVIamp", EVImed = "EVImed", ELE = "ELE", SLO = "SLO", ASP = "ASP", LGS = "LGS", Moose_new = "Moose_new")</t>
+  </si>
+  <si>
+    <t>order tried</t>
+  </si>
+  <si>
+    <t>don't get sig values from mixed models</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -370,6 +401,13 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -456,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -517,6 +555,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -539,6 +578,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -873,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22840F77-1CD5-7545-896A-C96C00E42A18}">
-  <dimension ref="A1:AN58"/>
+  <dimension ref="A1:AN47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C16" sqref="C16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -902,27 +942,12 @@
     <col min="40" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-      <c r="M1"/>
-      <c r="N1"/>
-      <c r="O1"/>
-      <c r="P1"/>
-    </row>
-    <row r="2" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
@@ -938,52 +963,39 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
       <c r="AN2" s="18"/>
     </row>
-    <row r="3" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3"/>
-      <c r="B3" s="30" t="s">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
       <c r="AN3" s="18"/>
     </row>
-    <row r="4" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="28" t="s">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
       <c r="AH4" s="18"/>
     </row>
     <row r="5" spans="1:40" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -1022,7 +1034,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1046,16 +1058,9 @@
         <v>25</v>
       </c>
       <c r="I6" s="9"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
       <c r="AJ6" s="16"/>
     </row>
-    <row r="7" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1079,16 +1084,9 @@
         <v>22</v>
       </c>
       <c r="I7" s="9"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
       <c r="AJ7" s="16"/>
     </row>
-    <row r="8" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1108,16 +1106,9 @@
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
       <c r="AJ8" s="16"/>
     </row>
-    <row r="9" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1127,7 +1118,6 @@
       <c r="C9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="19" t="s">
         <v>37</v>
@@ -1135,16 +1125,9 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
       <c r="AJ9" s="16"/>
     </row>
-    <row r="10" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1152,7 +1135,6 @@
         <v>37</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10"/>
       <c r="E10" s="9"/>
       <c r="F10" s="19" t="s">
         <v>37</v>
@@ -1162,16 +1144,9 @@
         <v>29</v>
       </c>
       <c r="I10" s="9"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
       <c r="AJ10" s="16"/>
     </row>
-    <row r="11" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1179,7 +1154,6 @@
         <v>37</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11"/>
       <c r="E11" s="9"/>
       <c r="F11" s="19" t="s">
         <v>37</v>
@@ -1189,16 +1163,9 @@
         <v>24</v>
       </c>
       <c r="I11" s="9"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
       <c r="AJ11" s="16"/>
     </row>
-    <row r="12" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1206,7 +1173,6 @@
         <v>37</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12"/>
       <c r="E12" s="9"/>
       <c r="F12" s="19" t="s">
         <v>37</v>
@@ -1214,16 +1180,9 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
       <c r="AJ12" s="16"/>
     </row>
-    <row r="13" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1243,49 +1202,31 @@
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
       <c r="AJ13" s="16"/>
     </row>
-    <row r="14" spans="1:40" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="9"/>
       <c r="F14" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>27</v>
+      <c r="G14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
       <c r="AJ14" s="16"/>
     </row>
-    <row r="15" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1304,50 +1245,40 @@
       <c r="F15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="9"/>
+      <c r="H15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
       <c r="AJ15" s="16"/>
     </row>
-    <row r="16" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16"/>
+      <c r="C16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="E16" s="9"/>
       <c r="F16" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>29</v>
+      <c r="G16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
       <c r="AJ16" s="16"/>
     </row>
-    <row r="17" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1355,54 +1286,41 @@
         <v>37</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="D17"/>
       <c r="E17" s="9"/>
       <c r="F17" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="G17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="I17" s="9"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
       <c r="AJ17" s="16"/>
     </row>
-    <row r="18" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18"/>
+    <row r="18" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="20"/>
       <c r="C18" s="9"/>
-      <c r="D18"/>
       <c r="E18" s="9"/>
       <c r="F18" s="20"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
       <c r="AJ18" s="16"/>
     </row>
-    <row r="19" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A19" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33" t="s">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="34" t="s">
         <v>21</v>
       </c>
       <c r="J19" s="7"/>
@@ -1413,59 +1331,59 @@
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
     </row>
-    <row r="20" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="34" t="s">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A20" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G20" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="34" t="s">
+      <c r="H20" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="35" t="s">
+      <c r="I20" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="J20" s="34" t="s">
+      <c r="J20" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="K20" s="34" t="s">
+      <c r="K20" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="L20" s="34" t="s">
+      <c r="L20" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="M20" s="34" t="s">
+      <c r="M20" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="N20" s="34" t="s">
+      <c r="N20" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="O20" s="34" t="s">
+      <c r="O20" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="P20" s="34" t="s">
+      <c r="P20" s="35" t="s">
         <v>55</v>
       </c>
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
     </row>
-    <row r="21" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
         <v>5</v>
       </c>
@@ -1493,30 +1411,30 @@
       <c r="I21" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="31">
+      <c r="J21" s="32">
         <v>3</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K21" s="32">
         <v>93.181780000000003</v>
       </c>
-      <c r="L21" s="31">
+      <c r="L21" s="32">
         <v>0</v>
       </c>
-      <c r="M21" s="31">
+      <c r="M21" s="32">
         <v>1</v>
       </c>
-      <c r="N21" s="31">
+      <c r="N21" s="32">
         <v>0.98167370939999998</v>
       </c>
-      <c r="O21" s="31">
+      <c r="O21" s="32">
         <v>-43.215890000000002</v>
       </c>
-      <c r="P21" s="31">
+      <c r="P21" s="32">
         <v>0.98167369999999998</v>
       </c>
       <c r="Q21" s="16"/>
     </row>
-    <row r="22" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
         <v>48</v>
       </c>
@@ -1544,30 +1462,30 @@
       <c r="I22" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="J22" s="31">
+      <c r="J22" s="32">
         <v>12</v>
       </c>
-      <c r="K22" s="31">
+      <c r="K22" s="32">
         <v>102.23362</v>
       </c>
-      <c r="L22" s="31">
+      <c r="L22" s="32">
         <v>9.0518439999999991</v>
       </c>
-      <c r="M22" s="31">
+      <c r="M22" s="32">
         <v>1.0824729999999999E-2</v>
       </c>
-      <c r="N22" s="31">
+      <c r="N22" s="32">
         <v>1.06263529E-2</v>
       </c>
-      <c r="O22" s="31">
+      <c r="O22" s="32">
         <v>-32.334200000000003</v>
       </c>
-      <c r="P22" s="31">
+      <c r="P22" s="32">
         <v>0.99230010000000002</v>
       </c>
       <c r="Q22" s="16"/>
     </row>
-    <row r="23" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
         <v>6</v>
       </c>
@@ -1595,30 +1513,30 @@
       <c r="I23" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="31">
+      <c r="J23" s="32">
         <v>3</v>
       </c>
-      <c r="K23" s="31">
+      <c r="K23" s="32">
         <v>103.88815</v>
       </c>
-      <c r="L23" s="31">
+      <c r="L23" s="32">
         <v>10.706372999999999</v>
       </c>
-      <c r="M23" s="31">
+      <c r="M23" s="32">
         <v>4.733045E-3</v>
       </c>
-      <c r="N23" s="31">
+      <c r="N23" s="32">
         <v>4.6463058000000002E-3</v>
       </c>
-      <c r="O23" s="31">
+      <c r="O23" s="32">
         <v>-48.56908</v>
       </c>
-      <c r="P23" s="31">
+      <c r="P23" s="32">
         <v>0.99694640000000001</v>
       </c>
       <c r="Q23" s="16"/>
     </row>
-    <row r="24" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
         <v>11</v>
       </c>
@@ -1646,29 +1564,29 @@
       <c r="I24" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="31">
+      <c r="J24" s="32">
         <v>3</v>
       </c>
-      <c r="K24" s="31">
+      <c r="K24" s="32">
         <v>107.07217</v>
       </c>
-      <c r="L24" s="31">
+      <c r="L24" s="32">
         <v>13.890387</v>
       </c>
-      <c r="M24" s="31">
+      <c r="M24" s="32">
         <v>9.6325369999999998E-4</v>
       </c>
-      <c r="N24" s="31">
+      <c r="N24" s="32">
         <v>9.4560089999999998E-4</v>
       </c>
-      <c r="O24" s="31">
+      <c r="O24" s="32">
         <v>-50.161079999999998</v>
       </c>
-      <c r="P24" s="31">
+      <c r="P24" s="32">
         <v>0.997892</v>
       </c>
     </row>
-    <row r="25" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
         <v>49</v>
       </c>
@@ -1696,29 +1614,29 @@
       <c r="I25" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J25" s="31">
+      <c r="J25" s="32">
         <v>2</v>
       </c>
-      <c r="K25" s="31">
+      <c r="K25" s="32">
         <v>107.77396</v>
       </c>
-      <c r="L25" s="31">
+      <c r="L25" s="32">
         <v>14.592183</v>
       </c>
-      <c r="M25" s="31">
+      <c r="M25" s="32">
         <v>6.781844E-4</v>
       </c>
-      <c r="N25" s="31">
+      <c r="N25" s="32">
         <v>6.6575580000000003E-4</v>
       </c>
-      <c r="O25" s="31">
+      <c r="O25" s="32">
         <v>-51.705159999999999</v>
       </c>
-      <c r="P25" s="31">
+      <c r="P25" s="32">
         <v>0.99855769999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
         <v>9</v>
       </c>
@@ -1746,29 +1664,29 @@
       <c r="I26" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="J26" s="31">
+      <c r="J26" s="32">
         <v>3</v>
       </c>
-      <c r="K26" s="31">
+      <c r="K26" s="32">
         <v>107.91549000000001</v>
       </c>
-      <c r="L26" s="31">
+      <c r="L26" s="32">
         <v>14.733707000000001</v>
       </c>
-      <c r="M26" s="31">
+      <c r="M26" s="32">
         <v>6.3185309999999996E-4</v>
       </c>
-      <c r="N26" s="31">
+      <c r="N26" s="32">
         <v>6.2027350000000002E-4</v>
       </c>
-      <c r="O26" s="31">
+      <c r="O26" s="32">
         <v>-50.582740000000001</v>
       </c>
-      <c r="P26" s="31">
+      <c r="P26" s="32">
         <v>0.99917800000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
         <v>10</v>
       </c>
@@ -1796,29 +1714,29 @@
       <c r="I27" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J27" s="32">
         <v>3</v>
       </c>
-      <c r="K27" s="31">
+      <c r="K27" s="32">
         <v>109.89349</v>
       </c>
-      <c r="L27" s="31">
+      <c r="L27" s="32">
         <v>16.711711999999999</v>
       </c>
-      <c r="M27" s="31">
+      <c r="M27" s="32">
         <v>2.3501619999999999E-4</v>
       </c>
-      <c r="N27" s="31">
+      <c r="N27" s="32">
         <v>2.3070919999999999E-4</v>
       </c>
-      <c r="O27" s="31">
+      <c r="O27" s="32">
         <v>-51.571750000000002</v>
       </c>
-      <c r="P27" s="31">
+      <c r="P27" s="32">
         <v>0.99940870000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
         <v>8</v>
       </c>
@@ -1846,29 +1764,29 @@
       <c r="I28" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="J28" s="31">
+      <c r="J28" s="32">
         <v>3</v>
       </c>
-      <c r="K28" s="31">
+      <c r="K28" s="32">
         <v>110.09878999999999</v>
       </c>
-      <c r="L28" s="31">
+      <c r="L28" s="32">
         <v>16.917009</v>
       </c>
-      <c r="M28" s="31">
+      <c r="M28" s="32">
         <v>2.120891E-4</v>
       </c>
-      <c r="N28" s="31">
+      <c r="N28" s="32">
         <v>2.0820229999999999E-4</v>
       </c>
-      <c r="O28" s="31">
+      <c r="O28" s="32">
         <v>-51.674390000000002</v>
       </c>
-      <c r="P28" s="31">
+      <c r="P28" s="32">
         <v>0.99961690000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="s">
         <v>7</v>
       </c>
@@ -1896,29 +1814,29 @@
       <c r="I29" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J29" s="31">
+      <c r="J29" s="32">
         <v>3</v>
       </c>
-      <c r="K29" s="31">
+      <c r="K29" s="32">
         <v>110.10362000000001</v>
       </c>
-      <c r="L29" s="31">
+      <c r="L29" s="32">
         <v>16.921845000000001</v>
       </c>
-      <c r="M29" s="31">
+      <c r="M29" s="32">
         <v>2.115768E-4</v>
       </c>
-      <c r="N29" s="31">
+      <c r="N29" s="32">
         <v>2.0769939999999999E-4</v>
       </c>
-      <c r="O29" s="31">
+      <c r="O29" s="32">
         <v>-51.676810000000003</v>
       </c>
-      <c r="P29" s="31">
+      <c r="P29" s="32">
         <v>0.99982459999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" s="25" t="s">
         <v>50</v>
       </c>
@@ -1946,29 +1864,29 @@
       <c r="I30" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="J30" s="31">
+      <c r="J30" s="32">
         <v>5</v>
       </c>
-      <c r="K30" s="31">
+      <c r="K30" s="32">
         <v>110.44177000000001</v>
       </c>
-      <c r="L30" s="31">
+      <c r="L30" s="32">
         <v>17.259995</v>
       </c>
-      <c r="M30" s="31">
+      <c r="M30" s="32">
         <v>1.786651E-4</v>
       </c>
-      <c r="N30" s="31">
+      <c r="N30" s="32">
         <v>1.7539079999999999E-4</v>
       </c>
-      <c r="O30" s="31">
+      <c r="O30" s="32">
         <v>-49.220889999999997</v>
       </c>
-      <c r="P30" s="31">
+      <c r="P30" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -1980,13 +1898,8 @@
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-    </row>
-    <row r="32" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1998,13 +1911,8 @@
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-    </row>
-    <row r="33" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -2016,13 +1924,8 @@
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-    </row>
-    <row r="34" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -2034,13 +1937,8 @@
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-    </row>
-    <row r="35" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -2052,13 +1950,8 @@
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-    </row>
-    <row r="36" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -2070,13 +1963,8 @@
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-    </row>
-    <row r="37" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -2088,13 +1976,8 @@
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
-      <c r="P37"/>
-    </row>
-    <row r="38" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -2106,13 +1989,8 @@
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38"/>
-    </row>
-    <row r="39" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -2131,7 +2009,7 @@
       <c r="P39" s="9"/>
       <c r="Q39" s="16"/>
     </row>
-    <row r="40" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -2150,7 +2028,7 @@
       <c r="P40" s="9"/>
       <c r="Q40" s="16"/>
     </row>
-    <row r="41" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -2170,7 +2048,7 @@
       <c r="Q41" s="16"/>
       <c r="R41" s="16"/>
     </row>
-    <row r="42" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -2190,7 +2068,7 @@
       <c r="Q42" s="16"/>
       <c r="R42" s="16"/>
     </row>
-    <row r="43" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -2210,7 +2088,7 @@
       <c r="Q43" s="16"/>
       <c r="R43" s="16"/>
     </row>
-    <row r="44" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -2230,7 +2108,7 @@
       <c r="Q44" s="16"/>
       <c r="R44" s="16"/>
     </row>
-    <row r="45" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -2242,13 +2120,8 @@
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45"/>
-      <c r="O45"/>
-      <c r="P45"/>
-    </row>
-    <row r="46" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -2260,13 +2133,8 @@
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
-      <c r="O46"/>
-      <c r="P46"/>
-    </row>
-    <row r="47" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -2278,209 +2146,6 @@
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
-      <c r="L47"/>
-      <c r="M47"/>
-      <c r="N47"/>
-      <c r="O47"/>
-      <c r="P47"/>
-    </row>
-    <row r="48" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48"/>
-      <c r="N48"/>
-      <c r="O48"/>
-      <c r="P48"/>
-    </row>
-    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
-      <c r="M49"/>
-      <c r="N49"/>
-      <c r="O49"/>
-      <c r="P49"/>
-    </row>
-    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50"/>
-      <c r="O50"/>
-      <c r="P50"/>
-    </row>
-    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51"/>
-      <c r="N51"/>
-      <c r="O51"/>
-      <c r="P51"/>
-    </row>
-    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
-      <c r="N52"/>
-      <c r="O52"/>
-      <c r="P52"/>
-    </row>
-    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53"/>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
-      <c r="M53"/>
-      <c r="N53"/>
-      <c r="O53"/>
-      <c r="P53"/>
-    </row>
-    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
-      <c r="O54"/>
-      <c r="P54"/>
-    </row>
-    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
-      <c r="O55"/>
-      <c r="P55"/>
-    </row>
-    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56"/>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-      <c r="I56"/>
-      <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
-      <c r="N56"/>
-      <c r="O56"/>
-      <c r="P56"/>
-    </row>
-    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57"/>
-      <c r="M57"/>
-      <c r="N57"/>
-      <c r="O57"/>
-      <c r="P57"/>
-    </row>
-    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
-      <c r="N58"/>
-      <c r="O58"/>
-      <c r="P58"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2493,34 +2158,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDC67C0-1A4E-5E4D-A31E-90F1C836F6D0}">
-  <dimension ref="A4:T30"/>
+  <dimension ref="A4:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="117" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="116.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="116.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="M4" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="40" t="s">
+    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="41" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2544,35 +2209,38 @@
       <c r="J5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2585,32 +2253,32 @@
       <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6">
+      <c r="H6" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="M6" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>22</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="R6" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="T6" t="s">
         <v>24</v>
       </c>
-      <c r="T6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2623,38 +2291,38 @@
       <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7">
+      <c r="G7" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7">
         <v>2</v>
       </c>
-      <c r="L7" s="25" t="s">
+      <c r="M7" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>22</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="R7" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="R7" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" t="s">
         <v>24</v>
       </c>
-      <c r="T7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2667,44 +2335,44 @@
       <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8">
+      <c r="F8" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8">
         <v>3</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="M8" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>22</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="R8" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="P8" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="S8" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" t="s">
         <v>24</v>
       </c>
-      <c r="T8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2717,41 +2385,42 @@
       <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9">
+      <c r="F9" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="37"/>
+      <c r="L9">
         <v>3</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="M9" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>26</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>29</v>
       </c>
-      <c r="Q9" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="R9" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="T9" s="36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R9" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="U9" s="37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2761,53 +2430,54 @@
       <c r="C10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10">
+      <c r="E10" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="37"/>
+      <c r="L10">
         <v>4</v>
       </c>
-      <c r="L10" s="25" t="s">
+      <c r="M10" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>22</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="P10" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q10" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="R10" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="P10" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="T10" t="s">
         <v>24</v>
       </c>
-      <c r="T10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -2817,53 +2487,54 @@
       <c r="C11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="37" t="s">
         <v>37</v>
       </c>
       <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11">
+      <c r="F11" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="37"/>
+      <c r="L11">
         <v>5</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="M11" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="P11" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q11" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="R11" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="S11" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="T11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P11" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="T11" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="U11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -2876,50 +2547,51 @@
       <c r="E12" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12">
+      <c r="F12" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="37"/>
+      <c r="L12">
         <v>5</v>
       </c>
-      <c r="L12" s="25" t="s">
+      <c r="M12" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="O12" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q12" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="R12" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="T12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O12" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="S12" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="U12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -2929,109 +2601,111 @@
       <c r="C13" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="37" t="s">
         <v>37</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13">
+      <c r="F13" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="37"/>
+      <c r="L13">
         <v>5</v>
       </c>
-      <c r="L13" s="25" t="s">
+      <c r="M13" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="P13" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q13" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="R13" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="T13" s="36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P13" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="S13" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="U13" s="37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B14" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14">
+      <c r="D14" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="37"/>
+      <c r="L14">
         <v>6</v>
       </c>
-      <c r="L14" s="25" t="s">
+      <c r="M14" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>22</v>
       </c>
-      <c r="O14" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="P14" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q14" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="R14" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="S14" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="T14" s="36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P14" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q14" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="R14" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="S14" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="T14" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="U14" s="37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B15" s="23" t="s">
         <v>40</v>
       </c>
@@ -3056,91 +2730,91 @@
       <c r="I15" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>6</v>
       </c>
-      <c r="L15" s="25" t="s">
+      <c r="M15" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>22</v>
       </c>
-      <c r="O15" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q15" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="R15" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="S15" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="T15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="34" t="s">
+      <c r="P15" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="S15" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="T15" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="U15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B16" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="34" t="s">
+      <c r="I16" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>7</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="M16" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="O16" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="P16" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q16" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="R16" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="S16" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="T16" s="36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="O16" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="P16" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q16" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="R16" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="T16" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="U16" s="37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="25" t="s">
         <v>73</v>
       </c>
@@ -3166,7 +2840,7 @@
         <v>0.39696490000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="25" t="s">
         <v>74</v>
       </c>
@@ -3191,8 +2865,32 @@
       <c r="I18" s="25">
         <v>0.71017669999999999</v>
       </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="M18" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="O18" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q18" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="R18" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="S18" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="T18" s="35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="25" t="s">
         <v>75</v>
       </c>
@@ -3217,32 +2915,32 @@
       <c r="I19" s="25">
         <v>0.8301193</v>
       </c>
-      <c r="L19" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="M19" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="N19" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="O19" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="P19" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q19" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="R19" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="S19" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="M19" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="N19" s="25">
+        <v>8</v>
+      </c>
+      <c r="O19" s="25">
+        <v>88.392309999999995</v>
+      </c>
+      <c r="P19" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="25">
+        <v>1</v>
+      </c>
+      <c r="R19" s="25">
+        <v>0.479637808</v>
+      </c>
+      <c r="S19" s="25">
+        <v>-33.529490000000003</v>
+      </c>
+      <c r="T19" s="25">
+        <v>0.4796378</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="25" t="s">
         <v>76</v>
       </c>
@@ -3267,32 +2965,32 @@
       <c r="I20" s="25">
         <v>0.93834240000000002</v>
       </c>
-      <c r="L20" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="M20" s="25">
-        <v>8</v>
+      <c r="M20" s="25" t="s">
+        <v>83</v>
       </c>
       <c r="N20" s="25">
-        <v>88.392309999999995</v>
+        <v>9</v>
       </c>
       <c r="O20" s="25">
-        <v>0</v>
+        <v>90.330839999999995</v>
       </c>
       <c r="P20" s="25">
-        <v>1</v>
+        <v>1.938534</v>
       </c>
       <c r="Q20" s="25">
-        <v>0.479637808</v>
+        <v>0.379361</v>
       </c>
       <c r="R20" s="25">
-        <v>-33.529490000000003</v>
+        <v>0.18195587799999999</v>
       </c>
       <c r="S20" s="25">
-        <v>0.4796378</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+        <v>-32.703879999999998</v>
+      </c>
+      <c r="T20" s="25">
+        <v>0.66159369999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" s="25" t="s">
         <v>5</v>
       </c>
@@ -3317,32 +3015,32 @@
       <c r="I21" s="25">
         <v>0.96080239999999995</v>
       </c>
-      <c r="L21" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="M21" s="25">
-        <v>9</v>
+      <c r="M21" s="25" t="s">
+        <v>84</v>
       </c>
       <c r="N21" s="25">
-        <v>90.330839999999995</v>
+        <v>6</v>
       </c>
       <c r="O21" s="25">
-        <v>1.938534</v>
+        <v>91.627440000000007</v>
       </c>
       <c r="P21" s="25">
-        <v>0.379361</v>
+        <v>3.2351269999999999</v>
       </c>
       <c r="Q21" s="25">
-        <v>0.18195587799999999</v>
+        <v>0.19838143499999999</v>
       </c>
       <c r="R21" s="25">
-        <v>-32.703879999999998</v>
+        <v>9.5151237E-2</v>
       </c>
       <c r="S21" s="25">
-        <v>0.66159369999999995</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+        <v>-38.36544</v>
+      </c>
+      <c r="T21" s="25">
+        <v>0.75674490000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" s="25" t="s">
         <v>77</v>
       </c>
@@ -3367,32 +3065,32 @@
       <c r="I22" s="25">
         <v>0.97994009999999998</v>
       </c>
-      <c r="L22" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="M22" s="25">
-        <v>6</v>
+      <c r="M22" s="25" t="s">
+        <v>85</v>
       </c>
       <c r="N22" s="25">
-        <v>91.627440000000007</v>
+        <v>7</v>
       </c>
       <c r="O22" s="25">
-        <v>3.2351269999999999</v>
+        <v>92.155720000000002</v>
       </c>
       <c r="P22" s="25">
-        <v>0.19838143499999999</v>
+        <v>3.7634059999999998</v>
       </c>
       <c r="Q22" s="25">
-        <v>9.5151237E-2</v>
+        <v>0.15233044600000001</v>
       </c>
       <c r="R22" s="25">
-        <v>-38.36544</v>
+        <v>7.3063441000000007E-2</v>
       </c>
       <c r="S22" s="25">
-        <v>0.75674490000000005</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+        <v>-37.077860000000001</v>
+      </c>
+      <c r="T22" s="25">
+        <v>0.8298084</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="25" t="s">
         <v>78</v>
       </c>
@@ -3417,32 +3115,32 @@
       <c r="I23" s="25">
         <v>0.98917129999999998</v>
       </c>
-      <c r="L23" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="M23" s="25">
-        <v>7</v>
+      <c r="M23" s="25" t="s">
+        <v>5</v>
       </c>
       <c r="N23" s="25">
-        <v>92.155720000000002</v>
+        <v>3</v>
       </c>
       <c r="O23" s="25">
-        <v>3.7634059999999998</v>
+        <v>93.181780000000003</v>
       </c>
       <c r="P23" s="25">
-        <v>0.15233044600000001</v>
+        <v>4.7894690000000004</v>
       </c>
       <c r="Q23" s="25">
-        <v>7.3063441000000007E-2</v>
+        <v>9.1196873999999997E-2</v>
       </c>
       <c r="R23" s="25">
-        <v>-37.077860000000001</v>
+        <v>4.3741468999999998E-2</v>
       </c>
       <c r="S23" s="25">
-        <v>0.8298084</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
+        <v>-43.215890000000002</v>
+      </c>
+      <c r="T23" s="25">
+        <v>0.87354980000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B24" s="25" t="s">
         <v>79</v>
       </c>
@@ -3467,32 +3165,32 @@
       <c r="I24" s="25">
         <v>0.99723709999999999</v>
       </c>
-      <c r="L24" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="25">
-        <v>3</v>
+      <c r="M24" s="25" t="s">
+        <v>86</v>
       </c>
       <c r="N24" s="25">
-        <v>93.181780000000003</v>
+        <v>7</v>
       </c>
       <c r="O24" s="25">
-        <v>4.7894690000000004</v>
+        <v>93.457279999999997</v>
       </c>
       <c r="P24" s="25">
-        <v>9.1196873999999997E-2</v>
+        <v>5.0649680000000004</v>
       </c>
       <c r="Q24" s="25">
-        <v>4.3741468999999998E-2</v>
+        <v>7.9461394000000005E-2</v>
       </c>
       <c r="R24" s="25">
-        <v>-43.215890000000002</v>
+        <v>3.8112688999999998E-2</v>
       </c>
       <c r="S24" s="25">
-        <v>0.87354980000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+        <v>-37.728639999999999</v>
+      </c>
+      <c r="T24" s="25">
+        <v>0.91166250000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B25" s="25" t="s">
         <v>80</v>
       </c>
@@ -3517,32 +3215,32 @@
       <c r="I25" s="25">
         <v>0.99939679999999997</v>
       </c>
-      <c r="L25" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="M25" s="25">
-        <v>7</v>
+      <c r="M25" s="25" t="s">
+        <v>80</v>
       </c>
       <c r="N25" s="25">
-        <v>93.457279999999997</v>
+        <v>10</v>
       </c>
       <c r="O25" s="25">
-        <v>5.0649680000000004</v>
+        <v>94.189599999999999</v>
       </c>
       <c r="P25" s="25">
-        <v>7.9461394000000005E-2</v>
+        <v>5.7972929999999998</v>
       </c>
       <c r="Q25" s="25">
-        <v>3.8112688999999998E-2</v>
+        <v>5.5097738E-2</v>
       </c>
       <c r="R25" s="25">
-        <v>-37.728639999999999</v>
+        <v>2.6426958E-2</v>
       </c>
       <c r="S25" s="25">
-        <v>0.91166250000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+        <v>-32.694800000000001</v>
+      </c>
+      <c r="T25" s="25">
+        <v>0.93808950000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" s="25" t="s">
         <v>81</v>
       </c>
@@ -3567,132 +3265,106 @@
       <c r="I26" s="25">
         <v>1</v>
       </c>
-      <c r="L26" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="M26" s="25">
-        <v>10</v>
+      <c r="M26" s="25" t="s">
+        <v>77</v>
       </c>
       <c r="N26" s="25">
-        <v>94.189599999999999</v>
+        <v>4</v>
       </c>
       <c r="O26" s="25">
-        <v>5.7972929999999998</v>
+        <v>94.204899999999995</v>
       </c>
       <c r="P26" s="25">
-        <v>5.5097738E-2</v>
+        <v>5.8125869999999997</v>
       </c>
       <c r="Q26" s="25">
-        <v>2.6426958E-2</v>
+        <v>5.4678009999999999E-2</v>
       </c>
       <c r="R26" s="25">
-        <v>-32.694800000000001</v>
+        <v>2.6225641000000001E-2</v>
       </c>
       <c r="S26" s="25">
-        <v>0.93808950000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="L27" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="M27" s="25">
-        <v>4</v>
+        <v>-42.45729</v>
+      </c>
+      <c r="T26" s="25">
+        <v>0.96431509999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="M27" s="25" t="s">
+        <v>79</v>
       </c>
       <c r="N27" s="25">
-        <v>94.204899999999995</v>
+        <v>5</v>
       </c>
       <c r="O27" s="25">
-        <v>5.8125869999999997</v>
+        <v>95.276539999999997</v>
       </c>
       <c r="P27" s="25">
-        <v>5.4678009999999999E-2</v>
+        <v>6.8842280000000002</v>
       </c>
       <c r="Q27" s="25">
-        <v>2.6225641000000001E-2</v>
+        <v>3.1996973999999997E-2</v>
       </c>
       <c r="R27" s="25">
-        <v>-42.45729</v>
+        <v>1.5346959E-2</v>
       </c>
       <c r="S27" s="25">
-        <v>0.96431509999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="L28" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="M28" s="25">
-        <v>5</v>
+        <v>-41.638269999999999</v>
+      </c>
+      <c r="T27" s="25">
+        <v>0.97966209999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="M28" s="25" t="s">
+        <v>87</v>
       </c>
       <c r="N28" s="25">
-        <v>95.276539999999997</v>
+        <v>11</v>
       </c>
       <c r="O28" s="25">
-        <v>6.8842280000000002</v>
+        <v>97.852099999999993</v>
       </c>
       <c r="P28" s="25">
-        <v>3.1996973999999997E-2</v>
+        <v>9.4597909999999992</v>
       </c>
       <c r="Q28" s="25">
-        <v>1.5346959E-2</v>
+        <v>8.8273919999999999E-3</v>
       </c>
       <c r="R28" s="25">
-        <v>-41.638269999999999</v>
+        <v>4.2339509999999997E-3</v>
       </c>
       <c r="S28" s="25">
-        <v>0.97966209999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="L29" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="M29" s="25">
-        <v>11</v>
+        <v>-32.426049999999996</v>
+      </c>
+      <c r="T28" s="25">
+        <v>0.9969114</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="M29" s="25" t="s">
+        <v>88</v>
       </c>
       <c r="N29" s="25">
-        <v>97.852099999999993</v>
+        <v>7</v>
       </c>
       <c r="O29" s="25">
-        <v>9.4597909999999992</v>
+        <v>98.482950000000002</v>
       </c>
       <c r="P29" s="25">
-        <v>8.8273919999999999E-3</v>
+        <v>10.09064</v>
       </c>
       <c r="Q29" s="25">
-        <v>4.2339509999999997E-3</v>
+        <v>6.4393990000000002E-3</v>
       </c>
       <c r="R29" s="25">
-        <v>-32.426049999999996</v>
+        <v>3.0885790000000002E-3</v>
       </c>
       <c r="S29" s="25">
-        <v>0.9969114</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="L30" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="M30" s="25">
-        <v>7</v>
-      </c>
-      <c r="N30" s="25">
-        <v>98.482950000000002</v>
-      </c>
-      <c r="O30" s="25">
-        <v>10.09064</v>
-      </c>
-      <c r="P30" s="25">
-        <v>6.4393990000000002E-3</v>
-      </c>
-      <c r="Q30" s="25">
-        <v>3.0885790000000002E-3</v>
-      </c>
-      <c r="R30" s="25">
         <v>-40.241480000000003</v>
       </c>
-      <c r="S30" s="25">
+      <c r="T29" s="25">
         <v>1</v>
       </c>
     </row>
@@ -3783,8 +3455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9C2D77-AC9C-9448-AFB4-66C1E8246857}">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3817,31 +3489,31 @@
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
       <c r="M4" s="23"/>
       <c r="N4" s="23" t="s">
         <v>40</v>
@@ -4101,9 +3773,6 @@
       <c r="B14" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="D14" s="13"/>
       <c r="E14" s="9"/>
       <c r="F14" s="19" t="s">
@@ -4144,14 +3813,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="E16" s="9"/>
       <c r="F16" s="19" t="s">
         <v>37</v>
@@ -4190,88 +3861,88 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="38" t="s">
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="34" t="s">
+      <c r="F22" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="34" t="s">
+      <c r="G22" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="34" t="s">
+      <c r="H22" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="34" t="s">
+      <c r="I22" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="J22" s="34" t="s">
+      <c r="J22" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="34" t="s">
+      <c r="K22" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="L22" s="35" t="s">
+      <c r="L22" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="M22" s="34" t="s">
+      <c r="M22" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="N22" s="34" t="s">
+      <c r="N22" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="O22" s="34" t="s">
+      <c r="O22" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="P22" s="34" t="s">
+      <c r="P22" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q22" s="34" t="s">
+      <c r="Q22" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="R22" s="34" t="s">
+      <c r="R22" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="S22" s="34" t="s">
+      <c r="S22" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="T22" s="34" t="s">
+      <c r="T22" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="U22" s="34" t="s">
+      <c r="U22" s="35" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4902,64 +4573,64 @@
       <c r="A33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E33" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="34" t="s">
+      <c r="F33" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="H33" s="34" t="s">
+      <c r="H33" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="I33" s="34" t="s">
+      <c r="I33" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="J33" s="34" t="s">
+      <c r="J33" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="K33" s="34" t="s">
+      <c r="K33" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="L33" s="35" t="s">
+      <c r="L33" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="M33" s="34" t="s">
+      <c r="M33" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="N33" s="34" t="s">
+      <c r="N33" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="O33" s="34" t="s">
+      <c r="O33" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="P33" s="34" t="s">
+      <c r="P33" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q33" s="34" t="s">
+      <c r="Q33" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="R33" s="34" t="s">
+      <c r="R33" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="S33" s="34" t="s">
+      <c r="S33" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="T33" s="34" t="s">
+      <c r="T33" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="U33" s="34" t="s">
+      <c r="U33" s="35" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4970,7 +4641,7 @@
       <c r="B34" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="39">
+      <c r="C34" s="40">
         <v>0.30498609999999998</v>
       </c>
       <c r="D34">
@@ -5585,6 +5256,813 @@
       <c r="U43" s="25">
         <v>1</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF442D8B-0070-A141-83AF-EEE97FF250C1}">
+  <dimension ref="A1:N35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="128.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="25">
+        <v>9</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="25">
+        <v>7</v>
+      </c>
+      <c r="D3" s="25">
+        <v>435.46260000000001</v>
+      </c>
+      <c r="E3" s="25">
+        <v>0</v>
+      </c>
+      <c r="F3" s="25">
+        <v>1</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0.25876840000000001</v>
+      </c>
+      <c r="H3" s="25">
+        <v>-210.43190000000001</v>
+      </c>
+      <c r="I3" s="25">
+        <v>0.25876840000000001</v>
+      </c>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="25">
+        <v>10</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="25">
+        <v>6</v>
+      </c>
+      <c r="D4" s="25">
+        <v>435.58229999999998</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0.11964180000000001</v>
+      </c>
+      <c r="F4" s="25">
+        <v>0.9419332399</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0.2437426</v>
+      </c>
+      <c r="H4" s="25">
+        <v>-211.5677</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0.50251100000000004</v>
+      </c>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="25">
+        <v>8</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="25">
+        <v>7</v>
+      </c>
+      <c r="D5" s="25">
+        <v>435.87180000000001</v>
+      </c>
+      <c r="E5" s="25">
+        <v>0.40912290000000001</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0.81500465460000004</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0.21089749999999999</v>
+      </c>
+      <c r="H5" s="25">
+        <v>-210.63640000000001</v>
+      </c>
+      <c r="I5" s="25">
+        <v>0.7134085</v>
+      </c>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="25">
+        <v>5</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="25">
+        <v>8</v>
+      </c>
+      <c r="D6" s="25">
+        <v>436.13040000000001</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0.66775759999999995</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0.71614056510000001</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0.1853146</v>
+      </c>
+      <c r="H6" s="25">
+        <v>-209.6781</v>
+      </c>
+      <c r="I6" s="25">
+        <v>0.89872300000000005</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="25">
+        <v>12</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="25">
+        <v>5</v>
+      </c>
+      <c r="D7" s="25">
+        <v>438.78750000000002</v>
+      </c>
+      <c r="E7" s="25">
+        <v>3.3248438999999999</v>
+      </c>
+      <c r="F7" s="25">
+        <v>0.189679028</v>
+      </c>
+      <c r="G7" s="25">
+        <v>4.9082939999999999E-2</v>
+      </c>
+      <c r="H7" s="25">
+        <v>-214.23500000000001</v>
+      </c>
+      <c r="I7" s="25">
+        <v>0.94780600000000004</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="25">
+        <v>6</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="25">
+        <v>7</v>
+      </c>
+      <c r="D8" s="25">
+        <v>439.26769999999999</v>
+      </c>
+      <c r="E8" s="25">
+        <v>3.8050939000000001</v>
+      </c>
+      <c r="F8" s="25">
+        <v>0.14918815660000001</v>
+      </c>
+      <c r="G8" s="25">
+        <v>3.8605180000000003E-2</v>
+      </c>
+      <c r="H8" s="25">
+        <v>-212.33439999999999</v>
+      </c>
+      <c r="I8" s="25">
+        <v>0.98641109999999999</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="25">
+        <v>4</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="25">
+        <v>10</v>
+      </c>
+      <c r="D9" s="25">
+        <v>441.90499999999997</v>
+      </c>
+      <c r="E9" s="25">
+        <v>6.4423094000000001</v>
+      </c>
+      <c r="F9" s="25">
+        <v>3.9908948499999999E-2</v>
+      </c>
+      <c r="G9" s="25">
+        <v>1.032718E-2</v>
+      </c>
+      <c r="H9" s="25">
+        <v>-210.35470000000001</v>
+      </c>
+      <c r="I9" s="25">
+        <v>0.99673829999999997</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="25">
+        <v>3</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="25">
+        <v>11</v>
+      </c>
+      <c r="D10" s="25">
+        <v>446.01179999999999</v>
+      </c>
+      <c r="E10" s="25">
+        <v>10.5491294</v>
+      </c>
+      <c r="F10" s="25">
+        <v>5.1201850000000002E-3</v>
+      </c>
+      <c r="G10" s="25">
+        <v>1.324942E-3</v>
+      </c>
+      <c r="H10" s="25">
+        <v>-211.28460000000001</v>
+      </c>
+      <c r="I10" s="25">
+        <v>0.99806329999999999</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="25">
+        <v>7</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="25">
+        <v>7</v>
+      </c>
+      <c r="D11" s="25">
+        <v>446.9144</v>
+      </c>
+      <c r="E11" s="25">
+        <v>11.4517551</v>
+      </c>
+      <c r="F11" s="25">
+        <v>3.2604907999999998E-3</v>
+      </c>
+      <c r="G11" s="25">
+        <v>8.4371200000000004E-4</v>
+      </c>
+      <c r="H11" s="25">
+        <v>-216.17150000000001</v>
+      </c>
+      <c r="I11" s="25">
+        <v>0.99890699999999999</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="25">
+        <v>11</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="25">
+        <v>5</v>
+      </c>
+      <c r="D12" s="25">
+        <v>446.97559999999999</v>
+      </c>
+      <c r="E12" s="25">
+        <v>11.5129371</v>
+      </c>
+      <c r="F12" s="25">
+        <v>3.1622591999999998E-3</v>
+      </c>
+      <c r="G12" s="25">
+        <v>8.1829280000000003E-4</v>
+      </c>
+      <c r="H12" s="25">
+        <v>-218.33629999999999</v>
+      </c>
+      <c r="I12" s="25">
+        <v>0.99972530000000004</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="25">
+        <v>1</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="25">
+        <v>12</v>
+      </c>
+      <c r="D13" s="25">
+        <v>449.834</v>
+      </c>
+      <c r="E13" s="25">
+        <v>14.371322599999999</v>
+      </c>
+      <c r="F13" s="25">
+        <v>7.5736800000000002E-4</v>
+      </c>
+      <c r="G13" s="25">
+        <v>1.9598289999999999E-4</v>
+      </c>
+      <c r="H13" s="25">
+        <v>-212.0598</v>
+      </c>
+      <c r="I13" s="25">
+        <v>0.99992119999999995</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="25">
+        <v>2</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="25">
+        <v>4</v>
+      </c>
+      <c r="D14" s="25">
+        <v>451.65730000000002</v>
+      </c>
+      <c r="E14" s="25">
+        <v>16.1946683</v>
+      </c>
+      <c r="F14" s="25">
+        <v>3.0434940000000001E-4</v>
+      </c>
+      <c r="G14" s="25">
+        <v>7.8756010000000004E-5</v>
+      </c>
+      <c r="H14" s="25">
+        <v>-221.72819999999999</v>
+      </c>
+      <c r="I14" s="25">
+        <v>1</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code_for_stats/c_lm_model_results.xlsx
+++ b/code_for_stats/c_lm_model_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmersonEmmerson/Documents/Master's/C_forecasting_NL/code_for_stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B6889D-84E9-814A-A0F5-ED3CEE492C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D867E745-3D58-0043-8EDC-0CB3CC30EEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16940" activeTab="3" xr2:uid="{2A789B6C-DF01-8A4C-BB45-45F2C6B1CDE0}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16940" xr2:uid="{2A789B6C-DF01-8A4C-BB45-45F2C6B1CDE0}"/>
   </bookViews>
   <sheets>
     <sheet name="by site" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="103">
   <si>
     <t>park</t>
   </si>
@@ -123,9 +123,6 @@
     <t>**</t>
   </si>
   <si>
-    <t>*** (as intercept)</t>
-  </si>
-  <si>
     <t>P values (significance)</t>
   </si>
   <si>
@@ -349,6 +346,9 @@
   </si>
   <si>
     <t>don't get sig values from mixed models</t>
+  </si>
+  <si>
+    <t>thurd after ecoevo</t>
   </si>
 </sst>
 </file>
@@ -915,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22840F77-1CD5-7545-896A-C96C00E42A18}">
   <dimension ref="A1:AN47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -944,12 +944,12 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1065,7 +1065,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>22</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>26</v>
@@ -1091,7 +1091,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>24</v>
@@ -1113,14 +1113,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -1132,16 +1132,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="AJ10" s="16"/>
@@ -1151,12 +1151,12 @@
         <v>9</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
@@ -1170,12 +1170,12 @@
         <v>10</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -1187,7 +1187,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9" t="s">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>24</v>
@@ -1209,19 +1209,19 @@
         <v>16</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="9"/>
       <c r="F14" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="AJ14" s="16"/>
@@ -1231,50 +1231,42 @@
         <v>17</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I15" s="9"/>
       <c r="AJ15" s="16"/>
     </row>
-    <row r="16" spans="1:40" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>27</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="9"/>
       <c r="F16" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>27</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="9"/>
       <c r="AJ16" s="16"/>
     </row>
@@ -1283,15 +1275,15 @@
         <v>19</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>24</v>
@@ -1333,52 +1325,52 @@
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>42</v>
-      </c>
       <c r="D20" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="I20" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="O20" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="L20" s="35" t="s">
+      <c r="P20" s="35" t="s">
         <v>54</v>
-      </c>
-      <c r="M20" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="N20" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="O20" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="P20" s="35" t="s">
-        <v>55</v>
       </c>
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
@@ -1436,7 +1428,7 @@
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="25">
         <v>11</v>
@@ -1460,7 +1452,7 @@
         <v>0.99906479999999998</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J22" s="32">
         <v>12</v>
@@ -1588,7 +1580,7 @@
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="25">
         <v>2</v>
@@ -1612,7 +1604,7 @@
         <v>0.99996700000000005</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J25" s="32">
         <v>2</v>
@@ -1838,7 +1830,7 @@
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" s="25">
         <v>4</v>
@@ -1862,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J30" s="32">
         <v>5</v>
@@ -2160,8 +2152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDC67C0-1A4E-5E4D-A31E-90F1C836F6D0}">
   <dimension ref="A4:U29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2180,10 +2172,10 @@
     </row>
     <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="41" t="s">
         <v>5</v>
@@ -2210,10 +2202,10 @@
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>5</v>
@@ -2245,7 +2237,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>22</v>
@@ -2254,13 +2246,13 @@
         <v>24</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N6" t="s">
         <v>22</v>
@@ -2269,13 +2261,13 @@
         <v>24</v>
       </c>
       <c r="R6" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T6" t="s">
         <v>24</v>
       </c>
       <c r="U6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -2283,7 +2275,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>22</v>
@@ -2292,16 +2284,16 @@
         <v>24</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L7">
         <v>2</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N7" t="s">
         <v>22</v>
@@ -2310,16 +2302,16 @@
         <v>24</v>
       </c>
       <c r="R7" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S7" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T7" t="s">
         <v>24</v>
       </c>
       <c r="U7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -2327,7 +2319,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>22</v>
@@ -2336,19 +2328,19 @@
         <v>24</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L8">
         <v>3</v>
       </c>
       <c r="M8" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N8" t="s">
         <v>22</v>
@@ -2357,19 +2349,19 @@
         <v>26</v>
       </c>
       <c r="P8" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R8" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S8" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T8" t="s">
         <v>24</v>
       </c>
       <c r="U8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -2377,7 +2369,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>22</v>
@@ -2386,38 +2378,38 @@
         <v>26</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K9" s="37"/>
       <c r="L9">
         <v>3</v>
       </c>
       <c r="M9" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R9" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S9" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U9" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -2425,32 +2417,32 @@
         <v>5</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K10" s="37"/>
       <c r="L10">
         <v>4</v>
       </c>
       <c r="M10" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N10" t="s">
         <v>22</v>
@@ -2459,22 +2451,22 @@
         <v>26</v>
       </c>
       <c r="P10" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R10" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S10" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T10" t="s">
         <v>24</v>
       </c>
       <c r="U10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -2482,56 +2474,56 @@
         <v>5</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11" s="37"/>
       <c r="L11">
         <v>5</v>
       </c>
       <c r="M11" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N11" t="s">
         <v>22</v>
       </c>
       <c r="P11" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R11" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S11" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T11" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -2539,7 +2531,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>22</v>
@@ -2548,47 +2540,47 @@
         <v>26</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12" s="37"/>
       <c r="L12">
         <v>5</v>
       </c>
       <c r="M12" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N12" t="s">
         <v>22</v>
       </c>
       <c r="O12" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P12" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q12" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R12" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S12" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -2596,56 +2588,56 @@
         <v>6</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13" s="37"/>
       <c r="L13">
         <v>5</v>
       </c>
       <c r="M13" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N13" t="s">
         <v>22</v>
       </c>
       <c r="P13" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R13" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S13" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U13" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -2656,132 +2648,132 @@
         <v>22</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K14" s="37"/>
       <c r="L14">
         <v>6</v>
       </c>
       <c r="M14" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N14" t="s">
         <v>22</v>
       </c>
       <c r="P14" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q14" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R14" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S14" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T14" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U14" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B15" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="D15" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="E15" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="F15" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="G15" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="H15" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="I15" s="23" t="s">
         <v>46</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>47</v>
       </c>
       <c r="L15">
         <v>6</v>
       </c>
       <c r="M15" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N15" t="s">
         <v>22</v>
       </c>
       <c r="P15" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R15" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S15" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T15" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B16" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="35" t="s">
-        <v>42</v>
-      </c>
       <c r="E16" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="35" t="s">
         <v>54</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>55</v>
       </c>
       <c r="L16">
         <v>7</v>
@@ -2793,30 +2785,30 @@
         <v>22</v>
       </c>
       <c r="O16" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P16" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q16" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R16" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S16" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T16" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U16" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="27">
         <v>5</v>
@@ -2842,7 +2834,7 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="27">
         <v>4</v>
@@ -2866,33 +2858,33 @@
         <v>0.71017669999999999</v>
       </c>
       <c r="M18" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N18" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="O18" s="35" t="s">
-        <v>42</v>
-      </c>
       <c r="P18" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q18" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="R18" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="S18" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T18" s="35" t="s">
         <v>54</v>
-      </c>
-      <c r="Q18" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="R18" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="S18" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="T18" s="35" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="27">
         <v>6</v>
@@ -2916,7 +2908,7 @@
         <v>0.8301193</v>
       </c>
       <c r="M19" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N19" s="25">
         <v>8</v>
@@ -2942,7 +2934,7 @@
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="27">
         <v>5</v>
@@ -2966,7 +2958,7 @@
         <v>0.93834240000000002</v>
       </c>
       <c r="M20" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N20" s="25">
         <v>9</v>
@@ -3016,7 +3008,7 @@
         <v>0.96080239999999995</v>
       </c>
       <c r="M21" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N21" s="25">
         <v>6</v>
@@ -3042,7 +3034,7 @@
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="27">
         <v>4</v>
@@ -3066,7 +3058,7 @@
         <v>0.97994009999999998</v>
       </c>
       <c r="M22" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N22" s="25">
         <v>7</v>
@@ -3092,7 +3084,7 @@
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" s="27">
         <v>8</v>
@@ -3142,7 +3134,7 @@
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B24" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" s="27">
         <v>5</v>
@@ -3166,7 +3158,7 @@
         <v>0.99723709999999999</v>
       </c>
       <c r="M24" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N24" s="25">
         <v>7</v>
@@ -3192,7 +3184,7 @@
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B25" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" s="27">
         <v>9</v>
@@ -3216,7 +3208,7 @@
         <v>0.99939679999999997</v>
       </c>
       <c r="M25" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N25" s="25">
         <v>10</v>
@@ -3242,7 +3234,7 @@
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="27">
         <v>10</v>
@@ -3266,7 +3258,7 @@
         <v>1</v>
       </c>
       <c r="M26" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N26" s="25">
         <v>4</v>
@@ -3292,7 +3284,7 @@
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="M27" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N27" s="25">
         <v>5</v>
@@ -3318,7 +3310,7 @@
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="M28" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N28" s="25">
         <v>11</v>
@@ -3344,7 +3336,7 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="M29" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N29" s="25">
         <v>7</v>
@@ -3389,7 +3381,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3402,7 +3394,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3410,7 +3402,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3418,21 +3410,21 @@
         <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3440,7 +3432,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3455,8 +3447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9C2D77-AC9C-9448-AFB4-66C1E8246857}">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="98" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3472,12 +3464,12 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3516,28 +3508,28 @@
       <c r="I4" s="29"/>
       <c r="M4" s="23"/>
       <c r="N4" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="P4" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="Q4" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="R4" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="S4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="S4" s="23" t="s">
-        <v>45</v>
-      </c>
       <c r="T4" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U4" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="17" x14ac:dyDescent="0.2">
@@ -3609,7 +3601,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>22</v>
@@ -3619,7 +3611,7 @@
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>22</v>
@@ -3637,7 +3629,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>26</v>
@@ -3647,7 +3639,7 @@
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>24</v>
@@ -3665,14 +3657,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -3686,12 +3678,12 @@
         <v>8</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
@@ -3707,12 +3699,12 @@
         <v>9</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
@@ -3728,12 +3720,12 @@
         <v>10</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -3747,7 +3739,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9" t="s">
@@ -3755,10 +3747,10 @@
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -3771,18 +3763,18 @@
         <v>16</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="9"/>
       <c r="F14" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I14" s="9"/>
       <c r="M14" s="24">
@@ -3794,15 +3786,15 @@
         <v>17</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>24</v>
@@ -3818,14 +3810,14 @@
         <v>18</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>26</v>
@@ -3835,7 +3827,7 @@
       </c>
       <c r="I16" s="9"/>
       <c r="M16" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -3843,12 +3835,12 @@
         <v>19</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -3856,7 +3848,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -3883,81 +3875,81 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="35" t="s">
-        <v>57</v>
-      </c>
       <c r="E22" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="35" t="s">
-        <v>42</v>
-      </c>
       <c r="G22" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="35" t="s">
+      <c r="L22" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="N22" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="O22" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="P22" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q22" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="R22" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="S22" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="35" t="s">
+      <c r="T22" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="J22" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="L22" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="M22" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="N22" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="O22" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="P22" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q22" s="35" t="s">
+      <c r="U22" s="35" t="s">
         <v>54</v>
-      </c>
-      <c r="R22" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="S22" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="T22" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="U22" s="35" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23" s="25">
         <v>11</v>
@@ -3981,13 +3973,13 @@
         <v>0.99999970000000005</v>
       </c>
       <c r="L23" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M23" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N23" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O23" s="25">
         <v>12</v>
@@ -4016,10 +4008,10 @@
         <v>5</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="25">
         <v>3</v>
@@ -4046,10 +4038,10 @@
         <v>5</v>
       </c>
       <c r="M24" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N24" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O24" s="25">
         <v>3</v>
@@ -4078,10 +4070,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" s="25">
         <v>3</v>
@@ -4108,10 +4100,10 @@
         <v>9</v>
       </c>
       <c r="M25" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N25" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O25" s="25">
         <v>3</v>
@@ -4140,10 +4132,10 @@
         <v>11</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" s="25">
         <v>3</v>
@@ -4170,10 +4162,10 @@
         <v>10</v>
       </c>
       <c r="M26" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N26" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O26" s="25">
         <v>3</v>
@@ -4202,10 +4194,10 @@
         <v>10</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" s="25">
         <v>3</v>
@@ -4232,10 +4224,10 @@
         <v>6</v>
       </c>
       <c r="M27" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N27" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O27" s="25">
         <v>3</v>
@@ -4264,10 +4256,10 @@
         <v>9</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28" s="25">
         <v>3</v>
@@ -4291,13 +4283,13 @@
         <v>1</v>
       </c>
       <c r="L28" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M28" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N28" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O28" s="25">
         <v>5</v>
@@ -4323,13 +4315,13 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B29" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29" s="25">
         <v>2</v>
@@ -4356,10 +4348,10 @@
         <v>8</v>
       </c>
       <c r="M29" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N29" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O29" s="25">
         <v>3</v>
@@ -4388,10 +4380,10 @@
         <v>8</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" s="25">
         <v>3</v>
@@ -4415,13 +4407,13 @@
         <v>1</v>
       </c>
       <c r="L30" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M30" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N30" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O30" s="25">
         <v>2</v>
@@ -4450,10 +4442,10 @@
         <v>7</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" s="25">
         <v>3</v>
@@ -4480,10 +4472,10 @@
         <v>7</v>
       </c>
       <c r="M31" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N31" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O31" s="25">
         <v>3</v>
@@ -4509,13 +4501,13 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B32" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E32" s="25">
         <v>4</v>
@@ -4542,10 +4534,10 @@
         <v>11</v>
       </c>
       <c r="M32" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N32" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O32" s="25">
         <v>3</v>
@@ -4571,75 +4563,75 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="35" t="s">
-        <v>57</v>
-      </c>
       <c r="E33" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="35" t="s">
-        <v>42</v>
-      </c>
       <c r="G33" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="H33" s="35" t="s">
+      <c r="L33" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="M33" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="N33" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="O33" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="P33" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q33" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="R33" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="S33" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="I33" s="35" t="s">
+      <c r="T33" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="J33" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="K33" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="L33" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="M33" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="N33" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="O33" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="P33" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q33" s="35" t="s">
+      <c r="U33" s="35" t="s">
         <v>54</v>
-      </c>
-      <c r="R33" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="S33" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="T33" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="U33" s="35" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <v>0.30498609999999998</v>
@@ -4793,7 +4785,7 @@
         <v>0.99717960000000005</v>
       </c>
       <c r="L36" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M36" s="25">
         <v>0.27425300000000002</v>
@@ -4949,7 +4941,7 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -4979,7 +4971,7 @@
         <v>0.99983889999999997</v>
       </c>
       <c r="L39" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M39" s="25">
         <v>0</v>
@@ -5197,7 +5189,7 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B43" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43">
         <v>1.312206E-3</v>
@@ -5227,7 +5219,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M43" s="25">
         <v>6.7467170000000007E-2</v>
@@ -5267,7 +5259,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5280,7 +5272,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
@@ -5297,31 +5289,31 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="F2" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="G2" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="28" t="s">
-        <v>45</v>
-      </c>
       <c r="H2" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
@@ -5334,7 +5326,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="25">
         <v>7</v>
@@ -5368,7 +5360,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="25">
         <v>6</v>
@@ -5402,7 +5394,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="25">
         <v>7</v>
@@ -5436,7 +5428,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="25">
         <v>8</v>
@@ -5470,7 +5462,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="25">
         <v>5</v>
@@ -5504,7 +5496,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="25">
         <v>7</v>
@@ -5538,7 +5530,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="25">
         <v>10</v>
@@ -5572,7 +5564,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="25">
         <v>11</v>
@@ -5606,7 +5598,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="25">
         <v>7</v>
@@ -5640,7 +5632,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="25">
         <v>5</v>
@@ -5674,7 +5666,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="25">
         <v>12</v>
@@ -5915,7 +5907,9 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
+      <c r="B26" s="25" t="s">
+        <v>102</v>
+      </c>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
